--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2046.391616511578</v>
+        <v>2131.590228606733</v>
       </c>
       <c r="AB2" t="n">
-        <v>2799.963290137588</v>
+        <v>2916.535789903669</v>
       </c>
       <c r="AC2" t="n">
-        <v>2532.738723500015</v>
+        <v>2638.185707498952</v>
       </c>
       <c r="AD2" t="n">
-        <v>2046391.616511578</v>
+        <v>2131590.228606733</v>
       </c>
       <c r="AE2" t="n">
-        <v>2799963.290137588</v>
+        <v>2916535.789903669</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.138044418969577e-06</v>
+        <v>2.105680131543777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.353125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2532738.723500015</v>
+        <v>2638185.707498952</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>708.1568097533493</v>
+        <v>744.7437011029349</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.9313887780528</v>
+        <v>1018.991187622285</v>
       </c>
       <c r="AC3" t="n">
-        <v>876.4579369368198</v>
+        <v>921.7400988387272</v>
       </c>
       <c r="AD3" t="n">
-        <v>708156.8097533493</v>
+        <v>744743.7011029349</v>
       </c>
       <c r="AE3" t="n">
-        <v>968931.3887780528</v>
+        <v>1018991.187622285</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.126994953028641e-06</v>
+        <v>3.935497541072717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.144791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>876457.9369368198</v>
+        <v>921740.0988387272</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>547.905564151616</v>
+        <v>584.40711464663</v>
       </c>
       <c r="AB4" t="n">
-        <v>749.668564759766</v>
+        <v>799.6115964818001</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.1212491055322</v>
+        <v>723.2977879755006</v>
       </c>
       <c r="AD4" t="n">
-        <v>547905.564151616</v>
+        <v>584407.11464663</v>
       </c>
       <c r="AE4" t="n">
-        <v>749668.564759766</v>
+        <v>799611.5964818001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485578875836899e-06</v>
+        <v>4.598971680713097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.113541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>678121.2491055322</v>
+        <v>723297.7879755006</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.4163469471857</v>
+        <v>511.0031487882202</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.1173756652184</v>
+        <v>699.1770520399019</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.1665243736879</v>
+        <v>632.4485754943687</v>
       </c>
       <c r="AD5" t="n">
-        <v>474416.3469471857</v>
+        <v>511003.1487882202</v>
       </c>
       <c r="AE5" t="n">
-        <v>649117.3756652185</v>
+        <v>699177.052039902</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.677854551289007e-06</v>
+        <v>4.954732020845733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.675</v>
       </c>
       <c r="AH5" t="n">
-        <v>587166.5243736879</v>
+        <v>632448.5754943687</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>438.5071863478815</v>
+        <v>474.9233959883239</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.9848779328923</v>
+        <v>649.8111425327288</v>
       </c>
       <c r="AC6" t="n">
-        <v>542.7231632670412</v>
+        <v>587.794079105071</v>
       </c>
       <c r="AD6" t="n">
-        <v>438507.1863478816</v>
+        <v>474923.395988324</v>
       </c>
       <c r="AE6" t="n">
-        <v>599984.8779328923</v>
+        <v>649811.1425327288</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.798063319553452e-06</v>
+        <v>5.177149714525015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.431249999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>542723.1632670412</v>
+        <v>587794.079105071</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.7801684208331</v>
+        <v>437.1714591567405</v>
       </c>
       <c r="AB7" t="n">
-        <v>564.7840370091776</v>
+        <v>598.1572770618482</v>
       </c>
       <c r="AC7" t="n">
-        <v>510.8818411963954</v>
+        <v>541.0699860580758</v>
       </c>
       <c r="AD7" t="n">
-        <v>412780.1684208331</v>
+        <v>437171.4591567405</v>
       </c>
       <c r="AE7" t="n">
-        <v>564784.0370091776</v>
+        <v>598157.2770618482</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.882530403079075e-06</v>
+        <v>5.333435933748685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.271875000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>510881.8411963955</v>
+        <v>541069.9860580758</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>392.6954006364006</v>
+        <v>417.0866913723079</v>
       </c>
       <c r="AB8" t="n">
-        <v>537.3031716490985</v>
+        <v>570.6764117017692</v>
       </c>
       <c r="AC8" t="n">
-        <v>486.0237110566455</v>
+        <v>516.2118559183259</v>
       </c>
       <c r="AD8" t="n">
-        <v>392695.4006364006</v>
+        <v>417086.6913723079</v>
       </c>
       <c r="AE8" t="n">
-        <v>537303.1716490985</v>
+        <v>570676.4117017692</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.940592405226221e-06</v>
+        <v>5.440865839190861e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.167708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>486023.7110566455</v>
+        <v>516211.8559183259</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>375.7904941959098</v>
+        <v>400.1817849318173</v>
       </c>
       <c r="AB9" t="n">
-        <v>514.1731328653824</v>
+        <v>547.5463729180531</v>
       </c>
       <c r="AC9" t="n">
-        <v>465.1011707112339</v>
+        <v>495.2893155729142</v>
       </c>
       <c r="AD9" t="n">
-        <v>375790.4941959098</v>
+        <v>400181.7849318173</v>
       </c>
       <c r="AE9" t="n">
-        <v>514173.1328653824</v>
+        <v>547546.3729180531</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.988880150730507e-06</v>
+        <v>5.530210810802321e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.084375000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>465101.1707112339</v>
+        <v>495289.3155729143</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>368.5466893187921</v>
+        <v>392.9379800546996</v>
       </c>
       <c r="AB10" t="n">
-        <v>504.2618394583932</v>
+        <v>537.6350795110639</v>
       </c>
       <c r="AC10" t="n">
-        <v>456.13579723642</v>
+        <v>486.3239420981004</v>
       </c>
       <c r="AD10" t="n">
-        <v>368546.6893187921</v>
+        <v>392937.9800546995</v>
       </c>
       <c r="AE10" t="n">
-        <v>504261.8394583932</v>
+        <v>537635.0795110639</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.00842866401623e-06</v>
+        <v>5.566380678463757e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.051041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>456135.79723642</v>
+        <v>486323.9420981004</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>368.9932113506409</v>
+        <v>393.3845020865483</v>
       </c>
       <c r="AB11" t="n">
-        <v>504.8727906015304</v>
+        <v>538.246030654201</v>
       </c>
       <c r="AC11" t="n">
-        <v>456.6884400599316</v>
+        <v>486.876584921612</v>
       </c>
       <c r="AD11" t="n">
-        <v>368993.2113506409</v>
+        <v>393384.5020865483</v>
       </c>
       <c r="AE11" t="n">
-        <v>504872.7906015304</v>
+        <v>538246.0306542011</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.009012201726252e-06</v>
+        <v>5.56746037600589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.05</v>
       </c>
       <c r="AH11" t="n">
-        <v>456688.4400599316</v>
+        <v>486876.584921612</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1245.175558438895</v>
+        <v>1304.079459957052</v>
       </c>
       <c r="AB2" t="n">
-        <v>1703.704132324738</v>
+        <v>1784.299049038613</v>
       </c>
       <c r="AC2" t="n">
-        <v>1541.105001099433</v>
+        <v>1614.008052077811</v>
       </c>
       <c r="AD2" t="n">
-        <v>1245175.558438895</v>
+        <v>1304079.459957052</v>
       </c>
       <c r="AE2" t="n">
-        <v>1703704.132324738</v>
+        <v>1784299.049038613</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.494213367586002e-06</v>
+        <v>2.848201284152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1541105.001099433</v>
+        <v>1614008.052077811</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>550.7027886262971</v>
+        <v>586.0792658790205</v>
       </c>
       <c r="AB3" t="n">
-        <v>753.495850690859</v>
+        <v>801.8995075680629</v>
       </c>
       <c r="AC3" t="n">
-        <v>681.5832642389912</v>
+        <v>725.3673440387938</v>
       </c>
       <c r="AD3" t="n">
-        <v>550702.7886262971</v>
+        <v>586079.2658790204</v>
       </c>
       <c r="AE3" t="n">
-        <v>753495.850690859</v>
+        <v>801899.5075680629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.409213433001004e-06</v>
+        <v>4.592332622987832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.524999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>681583.2642389912</v>
+        <v>725367.3440387938</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.2353088597263</v>
+        <v>473.526445257878</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.61288315921</v>
+        <v>647.899772914216</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.3866711524612</v>
+        <v>586.0651279203249</v>
       </c>
       <c r="AD4" t="n">
-        <v>438235.3088597264</v>
+        <v>473526.445257878</v>
       </c>
       <c r="AE4" t="n">
-        <v>599612.88315921</v>
+        <v>647899.772914216</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.734888864497883e-06</v>
+        <v>5.213120257691398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.747916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>542386.6711524612</v>
+        <v>586065.1279203249</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.0568333754227</v>
+        <v>427.1773775729822</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.4294557510293</v>
+        <v>584.4829337311884</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.2333813776201</v>
+        <v>528.7007028628327</v>
       </c>
       <c r="AD5" t="n">
-        <v>392056.8333754227</v>
+        <v>427177.3775729822</v>
       </c>
       <c r="AE5" t="n">
-        <v>536429.4557510293</v>
+        <v>584482.9337311884</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.907385165795812e-06</v>
+        <v>5.541924829733186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.407291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>485233.3813776201</v>
+        <v>528700.7028628327</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.4282576759377</v>
+        <v>384.9557714499233</v>
       </c>
       <c r="AB6" t="n">
-        <v>494.5220872415998</v>
+        <v>526.7134695478188</v>
       </c>
       <c r="AC6" t="n">
-        <v>447.3255933013692</v>
+        <v>476.4446752611717</v>
       </c>
       <c r="AD6" t="n">
-        <v>361428.2576759377</v>
+        <v>384955.7714499233</v>
       </c>
       <c r="AE6" t="n">
-        <v>494522.0872415998</v>
+        <v>526713.4695478188</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.017553407219687e-06</v>
+        <v>5.751922500416042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.209375</v>
       </c>
       <c r="AH6" t="n">
-        <v>447325.5933013692</v>
+        <v>476444.6752611717</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>341.0990360663329</v>
+        <v>364.6265498403184</v>
       </c>
       <c r="AB7" t="n">
-        <v>466.7067493733783</v>
+        <v>498.8981316795975</v>
       </c>
       <c r="AC7" t="n">
-        <v>422.1649122402191</v>
+        <v>451.2839942000214</v>
       </c>
       <c r="AD7" t="n">
-        <v>341099.0360663329</v>
+        <v>364626.5498403184</v>
       </c>
       <c r="AE7" t="n">
-        <v>466706.7493733783</v>
+        <v>498898.1316795975</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.082296113481115e-06</v>
+        <v>5.875332090447474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>422164.9122402191</v>
+        <v>451283.9942000214</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.8432073416172</v>
+        <v>362.3707211156027</v>
       </c>
       <c r="AB8" t="n">
-        <v>463.6202249920828</v>
+        <v>495.811607298302</v>
       </c>
       <c r="AC8" t="n">
-        <v>419.3729614139103</v>
+        <v>448.4920433737125</v>
       </c>
       <c r="AD8" t="n">
-        <v>338843.2073416172</v>
+        <v>362370.7211156028</v>
       </c>
       <c r="AE8" t="n">
-        <v>463620.2249920828</v>
+        <v>495811.6072983019</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.09120012203455e-06</v>
+        <v>5.89230450492732e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.085416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>419372.9614139103</v>
+        <v>448492.0433737125</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.5292292621506</v>
+        <v>447.2976583723426</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.8629821634092</v>
+        <v>612.0123895650155</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.9076379008192</v>
+        <v>553.6027860697131</v>
       </c>
       <c r="AD2" t="n">
-        <v>405529.2292621506</v>
+        <v>447297.6583723426</v>
       </c>
       <c r="AE2" t="n">
-        <v>554862.9821634092</v>
+        <v>612012.3895650154</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.633938151700648e-06</v>
+        <v>5.609598953779397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.660416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>501907.6379008192</v>
+        <v>553602.7860697132</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.3518139590668</v>
+        <v>301.5715492320472</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.9072789390571</v>
+        <v>412.6234980570629</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.6038474052394</v>
+        <v>373.2432905232128</v>
       </c>
       <c r="AD3" t="n">
-        <v>270351.8139590668</v>
+        <v>301571.5492320472</v>
       </c>
       <c r="AE3" t="n">
-        <v>369907.278939057</v>
+        <v>412623.4980570629</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.244555103178594e-06</v>
+        <v>6.910053260179505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>334603.8474052394</v>
+        <v>373243.2905232128</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.4175078175497</v>
+        <v>301.6372430905301</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.9971641744418</v>
+        <v>412.7133832924478</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.6851541199138</v>
+        <v>373.3245972378873</v>
       </c>
       <c r="AD4" t="n">
-        <v>270417.5078175497</v>
+        <v>301637.2430905302</v>
       </c>
       <c r="AE4" t="n">
-        <v>369997.1641744418</v>
+        <v>412713.3832924478</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.25533267761174e-06</v>
+        <v>6.933006673199254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.388541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>334685.1541199138</v>
+        <v>373324.5972378873</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.1497702762067</v>
+        <v>653.036954461008</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.4655894831144</v>
+        <v>893.513971050678</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.9208033991468</v>
+        <v>808.2382517083352</v>
       </c>
       <c r="AD2" t="n">
-        <v>609149.7702762067</v>
+        <v>653036.954461008</v>
       </c>
       <c r="AE2" t="n">
-        <v>833465.5894831144</v>
+        <v>893513.9710506781</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.171823531759421e-06</v>
+        <v>4.409552637631382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.727083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>753920.8033991469</v>
+        <v>808238.2517083351</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.6104282370263</v>
+        <v>387.5258163756273</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.1936322218743</v>
+        <v>530.2299183975472</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.8874329361576</v>
+        <v>479.6255191680488</v>
       </c>
       <c r="AD3" t="n">
-        <v>354610.4282370263</v>
+        <v>387525.8163756273</v>
       </c>
       <c r="AE3" t="n">
-        <v>485193.6322218743</v>
+        <v>530229.9183975472</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.930616561548521e-06</v>
+        <v>5.950164826878753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.726041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>438887.4329361576</v>
+        <v>479625.5191680488</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.193205124165</v>
+        <v>320.1368867251168</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.0010986066353</v>
+        <v>438.0254118599655</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.0620463887557</v>
+        <v>396.2208813245763</v>
       </c>
       <c r="AD4" t="n">
-        <v>298193.205124165</v>
+        <v>320136.8867251168</v>
       </c>
       <c r="AE4" t="n">
-        <v>408001.0986066352</v>
+        <v>438025.4118599655</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.190313878750226e-06</v>
+        <v>6.477440166383373e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>369062.0463887557</v>
+        <v>396220.8813245763</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.6031945900718</v>
+        <v>315.5468761910236</v>
       </c>
       <c r="AB5" t="n">
-        <v>401.7208436969158</v>
+        <v>431.745156950246</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.3811701932266</v>
+        <v>390.5400051290473</v>
       </c>
       <c r="AD5" t="n">
-        <v>293603.1945900719</v>
+        <v>315546.8761910236</v>
       </c>
       <c r="AE5" t="n">
-        <v>401720.8436969158</v>
+        <v>431745.156950246</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.217540210392341e-06</v>
+        <v>6.532719032621761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.215625</v>
       </c>
       <c r="AH5" t="n">
-        <v>363381.1701932266</v>
+        <v>390540.0051290473</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.0680850957218</v>
+        <v>321.0833565745526</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.5697538767446</v>
+        <v>439.3204136632663</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.8669563137869</v>
+        <v>397.3922899733166</v>
       </c>
       <c r="AD2" t="n">
-        <v>281068.0850957218</v>
+        <v>321083.3565745525</v>
       </c>
       <c r="AE2" t="n">
-        <v>384569.7538767447</v>
+        <v>439320.4136632663</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051955349466783e-06</v>
+        <v>6.796108443010406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>347866.9563137869</v>
+        <v>397392.2899733166</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.2590296669283</v>
+        <v>283.3984945579119</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.5201773899668</v>
+        <v>387.7583229133226</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.4487780040953</v>
+        <v>350.7512127966986</v>
       </c>
       <c r="AD3" t="n">
-        <v>253259.0296669283</v>
+        <v>283398.4945579119</v>
       </c>
       <c r="AE3" t="n">
-        <v>346520.1773899668</v>
+        <v>387758.3229133226</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.236821641981763e-06</v>
+        <v>7.207769567609948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.628125</v>
       </c>
       <c r="AH3" t="n">
-        <v>313448.7780040953</v>
+        <v>350751.2127966986</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1406.07069370662</v>
+        <v>1465.45693485313</v>
       </c>
       <c r="AB2" t="n">
-        <v>1923.847954590443</v>
+        <v>2005.102829663153</v>
       </c>
       <c r="AC2" t="n">
-        <v>1740.238605941894</v>
+        <v>1813.738629779597</v>
       </c>
       <c r="AD2" t="n">
-        <v>1406070.69370662</v>
+        <v>1465456.93485313</v>
       </c>
       <c r="AE2" t="n">
-        <v>1923847.954590443</v>
+        <v>2005102.829663153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400926056551997e-06</v>
+        <v>2.648820090155565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.12083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1740238.605941894</v>
+        <v>1813738.629779597</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>587.6555381769655</v>
+        <v>635.079118632761</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.056232866337</v>
+        <v>868.9432678266678</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.3182345015837</v>
+        <v>786.0125419148259</v>
       </c>
       <c r="AD3" t="n">
-        <v>587655.5381769654</v>
+        <v>635079.1186327611</v>
       </c>
       <c r="AE3" t="n">
-        <v>804056.2328663371</v>
+        <v>868943.2678266678</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.328046866263306e-06</v>
+        <v>4.401786433581887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.691666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>727318.2345015836</v>
+        <v>786012.5419148259</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.852449694996</v>
+        <v>497.4841406777714</v>
       </c>
       <c r="AB4" t="n">
-        <v>631.9268971647449</v>
+        <v>680.6797487266412</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.6166810143114</v>
+        <v>615.7166288481973</v>
       </c>
       <c r="AD4" t="n">
-        <v>461852.449694996</v>
+        <v>497484.1406777714</v>
       </c>
       <c r="AE4" t="n">
-        <v>631926.8971647449</v>
+        <v>680679.7487266412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.669342186115089e-06</v>
+        <v>5.047095224628647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.836458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>571616.6810143114</v>
+        <v>615716.6288481973</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.2280591263964</v>
+        <v>447.6891579085798</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.0286167151864</v>
+        <v>612.5480565022356</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.1985171550236</v>
+        <v>554.0873297062584</v>
       </c>
       <c r="AD5" t="n">
-        <v>412228.0591263964</v>
+        <v>447689.1579085798</v>
       </c>
       <c r="AE5" t="n">
-        <v>564028.6167151864</v>
+        <v>612548.0565022356</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.84821563157641e-06</v>
+        <v>5.385302636588299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.469791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>510198.5171550236</v>
+        <v>554087.3297062584</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.4629305204214</v>
+        <v>405.2174806841561</v>
       </c>
       <c r="AB6" t="n">
-        <v>521.9344104948079</v>
+        <v>554.4364340056205</v>
       </c>
       <c r="AC6" t="n">
-        <v>472.1217228967287</v>
+        <v>501.5217989005458</v>
       </c>
       <c r="AD6" t="n">
-        <v>381462.9305204214</v>
+        <v>405217.4806841561</v>
       </c>
       <c r="AE6" t="n">
-        <v>521934.410494808</v>
+        <v>554436.4340056205</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.956796000644068e-06</v>
+        <v>5.590602453547084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>472121.7228967287</v>
+        <v>501521.7989005458</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.7056297224042</v>
+        <v>381.4601798861389</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.4286234448207</v>
+        <v>521.9306469556333</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.7182425406335</v>
+        <v>472.1183185444507</v>
       </c>
       <c r="AD7" t="n">
-        <v>357705.6297224042</v>
+        <v>381460.1798861389</v>
       </c>
       <c r="AE7" t="n">
-        <v>489428.6234448208</v>
+        <v>521930.6469556333</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.030678510725918e-06</v>
+        <v>5.730296819356506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>442718.2425406335</v>
+        <v>472118.3185444507</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>345.1635861368693</v>
+        <v>368.918136300604</v>
       </c>
       <c r="AB8" t="n">
-        <v>472.2680460951798</v>
+        <v>504.7700696059925</v>
       </c>
       <c r="AC8" t="n">
-        <v>427.1954466082208</v>
+        <v>456.5955226120379</v>
       </c>
       <c r="AD8" t="n">
-        <v>345163.5861368693</v>
+        <v>368918.136300604</v>
       </c>
       <c r="AE8" t="n">
-        <v>472268.0460951799</v>
+        <v>504770.0696059925</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.072106557877076e-06</v>
+        <v>5.808627465771909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.070833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>427195.4466082208</v>
+        <v>456595.522612038</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>346.5588080922055</v>
+        <v>370.3133582559403</v>
       </c>
       <c r="AB9" t="n">
-        <v>474.1770503273195</v>
+        <v>506.6790738381321</v>
       </c>
       <c r="AC9" t="n">
-        <v>428.9222581557493</v>
+        <v>458.3223341595664</v>
       </c>
       <c r="AD9" t="n">
-        <v>346558.8080922056</v>
+        <v>370313.3582559403</v>
       </c>
       <c r="AE9" t="n">
-        <v>474177.0503273195</v>
+        <v>506679.0738381321</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.068965803399913e-06</v>
+        <v>5.802689041314424e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.076041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>428922.2581557493</v>
+        <v>458322.3341595664</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.0514450641487</v>
+        <v>273.4502120185481</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.9219539264864</v>
+        <v>374.1466438557144</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.0529113062477</v>
+        <v>338.438613284237</v>
       </c>
       <c r="AD2" t="n">
-        <v>244051.4450641487</v>
+        <v>273450.2120185481</v>
       </c>
       <c r="AE2" t="n">
-        <v>333921.9539264864</v>
+        <v>374146.6438557145</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.187571758818595e-06</v>
+        <v>7.307721021718939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>302052.9113062477</v>
+        <v>338438.613284237</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.4548572307855</v>
+        <v>274.8536241851849</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.842164367053</v>
+        <v>376.066854296282</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.7898595573996</v>
+        <v>340.1755615353891</v>
       </c>
       <c r="AD3" t="n">
-        <v>245454.8572307855</v>
+        <v>274853.6241851848</v>
       </c>
       <c r="AE3" t="n">
-        <v>335842.164367053</v>
+        <v>376066.8542962821</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.193657302071997e-06</v>
+        <v>7.321672535826325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.837499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>303789.8595573995</v>
+        <v>340175.5615353891</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.6000758356008</v>
+        <v>928.4911883143142</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.56167603979</v>
+        <v>1270.402605991911</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.745263449376</v>
+        <v>1149.157164297298</v>
       </c>
       <c r="AD2" t="n">
-        <v>871600.0758356008</v>
+        <v>928491.1883143141</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192561.67603979</v>
+        <v>1270402.605991911</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.803990637167803e-06</v>
+        <v>3.535796717817024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.978125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078745.263449376</v>
+        <v>1149157.164297298</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.1482933060954</v>
+        <v>491.2489139600459</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.4904628607181</v>
+        <v>672.1484364526601</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.7945309666687</v>
+        <v>607.999533043873</v>
       </c>
       <c r="AD3" t="n">
-        <v>457148.2933060954</v>
+        <v>491248.9139600458</v>
       </c>
       <c r="AE3" t="n">
-        <v>625490.4628607181</v>
+        <v>672148.4364526601</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.643634615853041e-06</v>
+        <v>5.181487312215571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.127083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>565794.5309666687</v>
+        <v>607999.533043873</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.9367341909139</v>
+        <v>401.9520139902927</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.4272719431091</v>
+        <v>549.9684784128534</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.3808796734718</v>
+        <v>497.4802587187372</v>
       </c>
       <c r="AD4" t="n">
-        <v>367936.7341909139</v>
+        <v>401952.0139902927</v>
       </c>
       <c r="AE4" t="n">
-        <v>503427.2719431091</v>
+        <v>549968.4784128534</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.948549771816329e-06</v>
+        <v>5.779116803996228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.492708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>455380.8796734718</v>
+        <v>497480.2587187372</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.5531146135727</v>
+        <v>351.3437854554377</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.5408661547206</v>
+        <v>480.7240674539964</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.6373168234815</v>
+        <v>434.8444371566524</v>
       </c>
       <c r="AD5" t="n">
-        <v>328553.1146135727</v>
+        <v>351343.7854554377</v>
       </c>
       <c r="AE5" t="n">
-        <v>449540.8661547205</v>
+        <v>480724.0674539964</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.106060762632652e-06</v>
+        <v>6.087836169204696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.214583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>406637.3168234815</v>
+        <v>434844.4371566524</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>315.028162232756</v>
+        <v>337.8188330746211</v>
       </c>
       <c r="AB6" t="n">
-        <v>431.0354296284995</v>
+        <v>462.2186309277755</v>
       </c>
       <c r="AC6" t="n">
-        <v>389.8980131867798</v>
+        <v>418.1051335199507</v>
       </c>
       <c r="AD6" t="n">
-        <v>315028.162232756</v>
+        <v>337818.833074621</v>
       </c>
       <c r="AE6" t="n">
-        <v>431035.4296284994</v>
+        <v>462218.6309277755</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.158927235364686e-06</v>
+        <v>6.191453725148308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.127083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>389898.0131867798</v>
+        <v>418105.1335199507</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.4054574350736</v>
+        <v>339.1961282769386</v>
       </c>
       <c r="AB7" t="n">
-        <v>432.9199056862864</v>
+        <v>464.1031069855623</v>
       </c>
       <c r="AC7" t="n">
-        <v>391.6026374944902</v>
+        <v>419.8097578276612</v>
       </c>
       <c r="AD7" t="n">
-        <v>316405.4574350736</v>
+        <v>339196.1282769386</v>
       </c>
       <c r="AE7" t="n">
-        <v>432919.9056862864</v>
+        <v>464103.1069855623</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.159238214616051e-06</v>
+        <v>6.192063240183271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.127083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>391602.6374944902</v>
+        <v>419809.7578276612</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.251999410188</v>
+        <v>1171.956581297072</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.149813519246</v>
+        <v>1603.522697606001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.214112018526</v>
+        <v>1450.484741904725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102251.999410188</v>
+        <v>1171956.581297072</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508149.813519246</v>
+        <v>1603522.697606001</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592350233328814e-06</v>
+        <v>3.061616700031127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364214.112018526</v>
+        <v>1450484.741904725</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.1074906791366</v>
+        <v>552.9598711311297</v>
       </c>
       <c r="AB3" t="n">
-        <v>708.8975260364978</v>
+        <v>756.5840905494233</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.2413410955003</v>
+        <v>684.3767668198261</v>
       </c>
       <c r="AD3" t="n">
-        <v>518107.4906791366</v>
+        <v>552959.8711311297</v>
       </c>
       <c r="AE3" t="n">
-        <v>708897.5260364978</v>
+        <v>756584.0905494234</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485419221826088e-06</v>
+        <v>4.77872319597281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>641241.3410955003</v>
+        <v>684376.7668198261</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>415.0656090714006</v>
+        <v>450.0032408694142</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.9110777338096</v>
+        <v>615.7142868993845</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.7104415430977</v>
+        <v>556.9513795181357</v>
       </c>
       <c r="AD4" t="n">
-        <v>415065.6090714006</v>
+        <v>450003.2408694142</v>
       </c>
       <c r="AE4" t="n">
-        <v>567911.0777338096</v>
+        <v>615714.2868993846</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.801543096123571e-06</v>
+        <v>5.386535543137428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.664583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>513710.4415430977</v>
+        <v>556951.3795181357</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.18613681829</v>
+        <v>406.9531764157116</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.2414920882981</v>
+        <v>556.8112894790261</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.6401988083132</v>
+        <v>503.6700015007002</v>
       </c>
       <c r="AD5" t="n">
-        <v>372186.13681829</v>
+        <v>406953.1764157116</v>
       </c>
       <c r="AE5" t="n">
-        <v>509241.4920882981</v>
+        <v>556811.2894790261</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.965622813048096e-06</v>
+        <v>5.702012120436847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.351041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>460640.1988083132</v>
+        <v>503670.0015007001</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>342.1936279676688</v>
+        <v>365.4854720082289</v>
       </c>
       <c r="AB6" t="n">
-        <v>468.2044183027726</v>
+        <v>500.0733468827043</v>
       </c>
       <c r="AC6" t="n">
-        <v>423.5196457489834</v>
+        <v>452.3470485135686</v>
       </c>
       <c r="AD6" t="n">
-        <v>342193.6279676688</v>
+        <v>365485.4720082289</v>
       </c>
       <c r="AE6" t="n">
-        <v>468204.4183027726</v>
+        <v>500073.3468827043</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.074399895577446e-06</v>
+        <v>5.911158152184093e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.161458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>423519.6457489834</v>
+        <v>452347.0485135686</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>329.9748975111278</v>
+        <v>353.2667415516879</v>
       </c>
       <c r="AB7" t="n">
-        <v>451.4862122397899</v>
+        <v>483.3551408197215</v>
       </c>
       <c r="AC7" t="n">
-        <v>408.3970018085023</v>
+        <v>437.2244045730874</v>
       </c>
       <c r="AD7" t="n">
-        <v>329974.8975111278</v>
+        <v>353266.7415516879</v>
       </c>
       <c r="AE7" t="n">
-        <v>451486.2122397899</v>
+        <v>483355.1408197215</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.114315295609225e-06</v>
+        <v>5.987903614814036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.095833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>408397.0018085023</v>
+        <v>437224.4045730875</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>331.7184746400906</v>
+        <v>355.0103186806508</v>
       </c>
       <c r="AB8" t="n">
-        <v>453.8718513888308</v>
+        <v>485.7407799687625</v>
       </c>
       <c r="AC8" t="n">
-        <v>410.5549589054243</v>
+        <v>439.3823616700096</v>
       </c>
       <c r="AD8" t="n">
-        <v>331718.4746400905</v>
+        <v>355010.3186806507</v>
       </c>
       <c r="AE8" t="n">
-        <v>453871.8513888308</v>
+        <v>485740.7799687625</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.113248853623643e-06</v>
+        <v>5.985853163522395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.097916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>410554.9589054243</v>
+        <v>439382.3616700096</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1796.580688131285</v>
+        <v>1869.223161622074</v>
       </c>
       <c r="AB2" t="n">
-        <v>2458.160957047326</v>
+        <v>2557.553594037173</v>
       </c>
       <c r="AC2" t="n">
-        <v>2223.5575253573</v>
+        <v>2313.464268571278</v>
       </c>
       <c r="AD2" t="n">
-        <v>1796580.688131285</v>
+        <v>1869223.161622074</v>
       </c>
       <c r="AE2" t="n">
-        <v>2458160.957047326</v>
+        <v>2557553.594037173</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221990758998984e-06</v>
+        <v>2.276476100385587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2223557.5253573</v>
+        <v>2313464.268571278</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.5624733211801</v>
+        <v>706.8485542240866</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.0742297238531</v>
+        <v>967.141375846755</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.0769699046322</v>
+        <v>874.8387603273865</v>
       </c>
       <c r="AD3" t="n">
-        <v>658562.4733211801</v>
+        <v>706848.5542240866</v>
       </c>
       <c r="AE3" t="n">
-        <v>901074.2297238532</v>
+        <v>967141.375846755</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191495581391318e-06</v>
+        <v>4.082590051028448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>815076.9699046322</v>
+        <v>874838.7603273864</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>522.3762092783834</v>
+        <v>558.5695242504715</v>
       </c>
       <c r="AB4" t="n">
-        <v>714.7381751465607</v>
+        <v>764.259465427736</v>
       </c>
       <c r="AC4" t="n">
-        <v>646.5245668519015</v>
+        <v>691.3196146922089</v>
       </c>
       <c r="AD4" t="n">
-        <v>522376.2092783834</v>
+        <v>558569.5242504715</v>
       </c>
       <c r="AE4" t="n">
-        <v>714738.1751465607</v>
+        <v>764259.4654277361</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.545887606564309e-06</v>
+        <v>4.742795514557843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.016666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>646524.5668519015</v>
+        <v>691319.6146922089</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.6282286873967</v>
+        <v>489.9067950055053</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.6741551551237</v>
+        <v>670.3120900889486</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.437884908766</v>
+        <v>606.3384449997857</v>
       </c>
       <c r="AD5" t="n">
-        <v>453628.2286873967</v>
+        <v>489906.7950055053</v>
       </c>
       <c r="AE5" t="n">
-        <v>620674.1551551237</v>
+        <v>670312.0900889486</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.731906657121916e-06</v>
+        <v>5.089334896866839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.607291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>561437.884908766</v>
+        <v>606338.4449997856</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.66374307695</v>
+        <v>455.7717171944664</v>
       </c>
       <c r="AB6" t="n">
-        <v>574.2024475355578</v>
+        <v>623.6069706945354</v>
       </c>
       <c r="AC6" t="n">
-        <v>519.40137184096</v>
+        <v>564.0907966493287</v>
       </c>
       <c r="AD6" t="n">
-        <v>419663.74307695</v>
+        <v>455771.7171944664</v>
       </c>
       <c r="AE6" t="n">
-        <v>574202.4475355578</v>
+        <v>623606.9706945354</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.848370758340591e-06</v>
+        <v>5.306298684051603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.378125000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>519401.37184096</v>
+        <v>564090.7966493287</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>395.3825757641922</v>
+        <v>419.5683761514823</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.9798832087429</v>
+        <v>574.0719623008411</v>
       </c>
       <c r="AC7" t="n">
-        <v>489.3495224253344</v>
+        <v>519.2833399339075</v>
       </c>
       <c r="AD7" t="n">
-        <v>395382.5757641922</v>
+        <v>419568.3761514823</v>
       </c>
       <c r="AE7" t="n">
-        <v>540979.8832087428</v>
+        <v>574071.962300841</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.928660403877709e-06</v>
+        <v>5.455872204004736e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.230208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>489349.5224253344</v>
+        <v>519283.3399339075</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>374.2417310226613</v>
+        <v>398.4275314099515</v>
       </c>
       <c r="AB8" t="n">
-        <v>512.0540467651349</v>
+        <v>545.1461258572331</v>
       </c>
       <c r="AC8" t="n">
-        <v>463.1843272142379</v>
+        <v>493.1181447228111</v>
       </c>
       <c r="AD8" t="n">
-        <v>374241.7310226613</v>
+        <v>398427.5314099515</v>
       </c>
       <c r="AE8" t="n">
-        <v>512054.0467651348</v>
+        <v>545146.1258572331</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.989833467144083e-06</v>
+        <v>5.569832981111884e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.122916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>463184.3272142379</v>
+        <v>493118.1447228111</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>361.8853616144488</v>
+        <v>386.0711620017389</v>
       </c>
       <c r="AB9" t="n">
-        <v>495.1475170162731</v>
+        <v>528.2395961083713</v>
       </c>
       <c r="AC9" t="n">
-        <v>447.8913329361441</v>
+        <v>477.8251504447172</v>
       </c>
       <c r="AD9" t="n">
-        <v>361885.3616144488</v>
+        <v>386071.1620017389</v>
       </c>
       <c r="AE9" t="n">
-        <v>495147.5170162731</v>
+        <v>528239.5961083713</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.024537416497123e-06</v>
+        <v>5.634483806586131e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.064583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>447891.3329361441</v>
+        <v>477825.1504447171</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>361.3293093609951</v>
+        <v>385.5151097482853</v>
       </c>
       <c r="AB10" t="n">
-        <v>494.3867017918037</v>
+        <v>527.4787808839019</v>
       </c>
       <c r="AC10" t="n">
-        <v>447.2031288488872</v>
+        <v>477.1369463574601</v>
       </c>
       <c r="AD10" t="n">
-        <v>361329.3093609951</v>
+        <v>385515.1097482853</v>
       </c>
       <c r="AE10" t="n">
-        <v>494386.7017918036</v>
+        <v>527478.7808839019</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.028066631685568e-06</v>
+        <v>5.641058466803852e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.058333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>447203.1288488872</v>
+        <v>477136.9463574601</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>697.1317614375029</v>
+        <v>741.5284440479184</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.8464312815078</v>
+        <v>1014.591931072481</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.8126666118743</v>
+        <v>917.7607011596415</v>
       </c>
       <c r="AD2" t="n">
-        <v>697131.7614375028</v>
+        <v>741528.4440479183</v>
       </c>
       <c r="AE2" t="n">
-        <v>953846.4312815077</v>
+        <v>1014591.931072481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.039168075956195e-06</v>
+        <v>4.087507014581956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.126041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>862812.6666118744</v>
+        <v>917760.7011596415</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.2702463330597</v>
+        <v>417.6316968003867</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.7755038396924</v>
+        <v>571.4221121724094</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.5962276837857</v>
+        <v>516.8863877826453</v>
       </c>
       <c r="AD3" t="n">
-        <v>384270.2463330597</v>
+        <v>417631.6968003868</v>
       </c>
       <c r="AE3" t="n">
-        <v>525775.5038396925</v>
+        <v>571422.1121724093</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.830781459164031e-06</v>
+        <v>5.67429394737645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.854166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>475596.2276837857</v>
+        <v>516886.3877826454</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.1798366132184</v>
+        <v>353.3706948799533</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.0841777916814</v>
+        <v>483.4973743495514</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.2740387182479</v>
+        <v>437.3530635344563</v>
       </c>
       <c r="AD4" t="n">
-        <v>320179.8366132184</v>
+        <v>353370.6948799533</v>
       </c>
       <c r="AE4" t="n">
-        <v>438084.1777916814</v>
+        <v>483497.3743495514</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.112205107655723e-06</v>
+        <v>6.238406906402466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.325</v>
       </c>
       <c r="AH4" t="n">
-        <v>396274.0387182479</v>
+        <v>437353.0635344563</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.8881740770692</v>
+        <v>323.1292305638383</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.6884740216379</v>
+        <v>442.1196687129976</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.3975038694143</v>
+        <v>399.9243880498806</v>
       </c>
       <c r="AD5" t="n">
-        <v>300888.1740770692</v>
+        <v>323129.2305638383</v>
       </c>
       <c r="AE5" t="n">
-        <v>411688.4740216379</v>
+        <v>442119.6687129976</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.196361755508806e-06</v>
+        <v>6.407098684426639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.184375</v>
       </c>
       <c r="AH5" t="n">
-        <v>372397.5038694143</v>
+        <v>399924.3880498806</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.4325455792371</v>
+        <v>324.6736020660062</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.801551243766</v>
+        <v>444.2327459351258</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.3089119671851</v>
+        <v>401.8357961476513</v>
       </c>
       <c r="AD6" t="n">
-        <v>302432.545579237</v>
+        <v>324673.6020660062</v>
       </c>
       <c r="AE6" t="n">
-        <v>413801.551243766</v>
+        <v>444232.7459351257</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.196043582927131e-06</v>
+        <v>6.406460908328249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.185416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>374308.9119671851</v>
+        <v>401835.7961476513</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.1269590692049</v>
+        <v>507.6226142421215</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.4072253516954</v>
+        <v>694.5516555352712</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.6694129672795</v>
+        <v>628.264620340355</v>
       </c>
       <c r="AD2" t="n">
-        <v>465126.9590692049</v>
+        <v>507622.6142421215</v>
       </c>
       <c r="AE2" t="n">
-        <v>636407.2253516954</v>
+        <v>694551.6555352712</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.465841877912564e-06</v>
+        <v>5.158695417207623e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>575669.4129672796</v>
+        <v>628264.620340355</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.9835515184378</v>
+        <v>324.7487063384617</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.8730207095832</v>
+        <v>444.3355069140661</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.614262241878</v>
+        <v>401.9287497629876</v>
       </c>
       <c r="AD3" t="n">
-        <v>292983.5515184378</v>
+        <v>324748.7063384617</v>
       </c>
       <c r="AE3" t="n">
-        <v>400873.0207095832</v>
+        <v>444335.5069140661</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.16134848823508e-06</v>
+        <v>6.613738741536951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.460416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>362614.262241878</v>
+        <v>401928.7497629876</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.3841825022999</v>
+        <v>309.1493373223239</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.5292758261127</v>
+        <v>422.9917620305957</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.3075344139519</v>
+        <v>382.6220219350614</v>
       </c>
       <c r="AD4" t="n">
-        <v>277384.1825022999</v>
+        <v>309149.3373223239</v>
       </c>
       <c r="AE4" t="n">
-        <v>379529.2758261127</v>
+        <v>422991.7620305957</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.248183242537915e-06</v>
+        <v>6.795402478003133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.314583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>343307.5344139519</v>
+        <v>382622.0219350614</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.959104289364</v>
+        <v>378.6700085520254</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.0929973609798</v>
+        <v>518.1130114426275</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.6553498935658</v>
+        <v>468.6650328067209</v>
       </c>
       <c r="AD2" t="n">
-        <v>347959.104289364</v>
+        <v>378670.0085520254</v>
       </c>
       <c r="AE2" t="n">
-        <v>476092.9973609798</v>
+        <v>518113.0114426274</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825765150323937e-06</v>
+        <v>6.142805876292026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>430655.3498935658</v>
+        <v>468665.0328067209</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.8387912344199</v>
+        <v>291.4643546425096</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8911415622524</v>
+        <v>398.7943885217023</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.8299519114134</v>
+        <v>360.7340117926299</v>
       </c>
       <c r="AD3" t="n">
-        <v>260838.7912344199</v>
+        <v>291464.3546425097</v>
       </c>
       <c r="AE3" t="n">
-        <v>356891.1415622524</v>
+        <v>398794.3885217023</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.253984110861986e-06</v>
+        <v>7.073692134419754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>322829.9519114135</v>
+        <v>360734.0117926299</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.040047297141</v>
+        <v>273.4919279742452</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.274603115718</v>
+        <v>374.2037214666773</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.2764655553146</v>
+        <v>338.4902434881185</v>
       </c>
       <c r="AD2" t="n">
-        <v>245040.047297141</v>
+        <v>273491.9279742452</v>
       </c>
       <c r="AE2" t="n">
-        <v>335274.6031157181</v>
+        <v>374203.7214666773</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.083689532908892e-06</v>
+        <v>7.334638701157649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.214583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>303276.4655553146</v>
+        <v>338490.2434881185</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.028749129527</v>
+        <v>1042.474438434703</v>
       </c>
       <c r="AB2" t="n">
-        <v>1347.759790960432</v>
+        <v>1426.359517392722</v>
       </c>
       <c r="AC2" t="n">
-        <v>1219.131488103915</v>
+        <v>1290.229766960916</v>
       </c>
       <c r="AD2" t="n">
-        <v>985028.749129527</v>
+        <v>1042474.438434703</v>
       </c>
       <c r="AE2" t="n">
-        <v>1347759.790960432</v>
+        <v>1426359.517392722</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.696567696789669e-06</v>
+        <v>3.292322278711671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.447916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1219131.488103915</v>
+        <v>1290229.766960916</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.683872466706</v>
+        <v>522.1683900241461</v>
       </c>
       <c r="AB3" t="n">
-        <v>667.2705894029421</v>
+        <v>714.4538276745748</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.5872208704786</v>
+        <v>646.2673571035575</v>
       </c>
       <c r="AD3" t="n">
-        <v>487683.872466706</v>
+        <v>522168.3900241461</v>
       </c>
       <c r="AE3" t="n">
-        <v>667270.5894029421</v>
+        <v>714453.8276745748</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.56162334628645e-06</v>
+        <v>4.971030409576628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.257291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>603587.2208704787</v>
+        <v>646267.3571035576</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.0390540547384</v>
+        <v>426.6088229581991</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.4051293001008</v>
+        <v>583.7050122243827</v>
       </c>
       <c r="AC4" t="n">
-        <v>485.2113766090258</v>
+        <v>527.997025092817</v>
       </c>
       <c r="AD4" t="n">
-        <v>392039.0540547384</v>
+        <v>426608.8229581991</v>
       </c>
       <c r="AE4" t="n">
-        <v>536405.1293001008</v>
+        <v>583705.0122243827</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.870901513395759e-06</v>
+        <v>5.57120887685492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>485211.3766090258</v>
+        <v>527997.025092817</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.4419099687154</v>
+        <v>384.8410866715839</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.4900816251246</v>
+        <v>526.5565527745597</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.7282212033782</v>
+        <v>476.3027344045183</v>
       </c>
       <c r="AD5" t="n">
-        <v>350441.9099687154</v>
+        <v>384841.0866715839</v>
       </c>
       <c r="AE5" t="n">
-        <v>479490.0816251246</v>
+        <v>526556.5527745597</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.035542129717629e-06</v>
+        <v>5.890706866898589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.280208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>433728.2212033782</v>
+        <v>476302.7344045183</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.3614410924465</v>
+        <v>348.4080432033048</v>
       </c>
       <c r="AB6" t="n">
-        <v>445.1738776364176</v>
+        <v>476.7072553888207</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.6871075602585</v>
+        <v>431.2109839973459</v>
       </c>
       <c r="AD6" t="n">
-        <v>325361.4410924465</v>
+        <v>348408.0432033048</v>
       </c>
       <c r="AE6" t="n">
-        <v>445173.8776364176</v>
+        <v>476707.2553888207</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.126479143031858e-06</v>
+        <v>6.067177252053549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.127083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>402687.1075602585</v>
+        <v>431210.9839973459</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.8615749151317</v>
+        <v>346.9081770259899</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.1216945631897</v>
+        <v>474.6550723155928</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.8307819592825</v>
+        <v>429.3546583963699</v>
       </c>
       <c r="AD7" t="n">
-        <v>323861.5749151317</v>
+        <v>346908.1770259899</v>
       </c>
       <c r="AE7" t="n">
-        <v>443121.6945631898</v>
+        <v>474655.0723155928</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.134018760040991e-06</v>
+        <v>6.081808468420035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.114583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>400830.7819592825</v>
+        <v>429354.6583963699</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1581.015085034177</v>
+        <v>1652.936069258923</v>
       </c>
       <c r="AB2" t="n">
-        <v>2163.214588806642</v>
+        <v>2261.620052352831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1956.76042454168</v>
+        <v>2045.774208759955</v>
       </c>
       <c r="AD2" t="n">
-        <v>1581015.085034177</v>
+        <v>1652936.069258923</v>
       </c>
       <c r="AE2" t="n">
-        <v>2163214.588806642</v>
+        <v>2261620.052352831</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.309702236239204e-06</v>
+        <v>2.457515098703109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.79270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1956760.42454168</v>
+        <v>2045774.208759955</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.9296044714058</v>
+        <v>668.7915864333321</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.5832783185928</v>
+        <v>915.0701535605206</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.5002426334856</v>
+        <v>827.7371424137305</v>
       </c>
       <c r="AD3" t="n">
-        <v>620929.6044714059</v>
+        <v>668791.5864333321</v>
       </c>
       <c r="AE3" t="n">
-        <v>849583.2783185928</v>
+        <v>915070.1535605206</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261768132185308e-06</v>
+        <v>4.243964147584879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.829166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>768500.2426334856</v>
+        <v>827737.1424137305</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>485.9113745692716</v>
+        <v>521.8718666816451</v>
       </c>
       <c r="AB4" t="n">
-        <v>664.8453795825841</v>
+        <v>714.0481113556783</v>
       </c>
       <c r="AC4" t="n">
-        <v>601.3934696715722</v>
+        <v>645.9003617807101</v>
       </c>
       <c r="AD4" t="n">
-        <v>485911.3745692716</v>
+        <v>521871.866681645</v>
       </c>
       <c r="AE4" t="n">
-        <v>664845.3795825841</v>
+        <v>714048.1113556783</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.60665292800693e-06</v>
+        <v>4.891103298449074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.925000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>601393.4696715722</v>
+        <v>645900.3617807102</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.9932633103524</v>
+        <v>468.9537554227257</v>
       </c>
       <c r="AB5" t="n">
-        <v>592.4404851758286</v>
+        <v>641.6432169489228</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.8987967660901</v>
+        <v>580.405688875228</v>
       </c>
       <c r="AD5" t="n">
-        <v>432993.2633103524</v>
+        <v>468953.7554227257</v>
       </c>
       <c r="AE5" t="n">
-        <v>592440.4851758286</v>
+        <v>641643.2169489228</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.788733121157812e-06</v>
+        <v>5.232757157976688e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.538541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>535898.7967660901</v>
+        <v>580405.6888752279</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>400.9150411627789</v>
+        <v>436.7049410745602</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.5496464422366</v>
+        <v>597.5189664404838</v>
       </c>
       <c r="AC6" t="n">
-        <v>496.196838080053</v>
+        <v>540.4925949065398</v>
       </c>
       <c r="AD6" t="n">
-        <v>400915.0411627789</v>
+        <v>436704.9410745602</v>
       </c>
       <c r="AE6" t="n">
-        <v>548549.6464422366</v>
+        <v>597518.9664404838</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.901124641034334e-06</v>
+        <v>5.443647732505949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.323958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>496196.838080053</v>
+        <v>540492.5949065398</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.5539356245015</v>
+        <v>400.5276865413014</v>
       </c>
       <c r="AB7" t="n">
-        <v>515.2177071086402</v>
+        <v>548.0196507602515</v>
       </c>
       <c r="AC7" t="n">
-        <v>466.0460522547844</v>
+        <v>495.7174244421029</v>
       </c>
       <c r="AD7" t="n">
-        <v>376553.9356245015</v>
+        <v>400527.6865413014</v>
       </c>
       <c r="AE7" t="n">
-        <v>515217.7071086402</v>
+        <v>548019.6507602514</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.981933847278007e-06</v>
+        <v>5.595277499152976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.179166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>466046.0522547844</v>
+        <v>495717.4244421028</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>357.0733820389261</v>
+        <v>381.047132955726</v>
       </c>
       <c r="AB8" t="n">
-        <v>488.5635542714866</v>
+        <v>521.3654979230978</v>
       </c>
       <c r="AC8" t="n">
-        <v>441.9357343550703</v>
+        <v>471.6071065423887</v>
       </c>
       <c r="AD8" t="n">
-        <v>357073.3820389261</v>
+        <v>381047.132955726</v>
       </c>
       <c r="AE8" t="n">
-        <v>488563.5542714866</v>
+        <v>521365.4979230978</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.037981333443344e-06</v>
+        <v>5.700444566662291e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.084375000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>441935.7343550703</v>
+        <v>471607.1065423887</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>353.0521307039578</v>
+        <v>377.0258816207577</v>
       </c>
       <c r="AB9" t="n">
-        <v>483.0615007898947</v>
+        <v>515.863444441506</v>
       </c>
       <c r="AC9" t="n">
-        <v>436.958789135581</v>
+        <v>466.6301613228994</v>
       </c>
       <c r="AD9" t="n">
-        <v>353052.1307039578</v>
+        <v>377025.8816207577</v>
       </c>
       <c r="AE9" t="n">
-        <v>483061.5007898947</v>
+        <v>515863.4444415059</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.050436330368975e-06</v>
+        <v>5.723815026108806e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.063541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>436958.789135581</v>
+        <v>466630.1613228995</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>354.567280989762</v>
+        <v>378.541031906562</v>
       </c>
       <c r="AB10" t="n">
-        <v>485.1345962546451</v>
+        <v>517.9365399062563</v>
       </c>
       <c r="AC10" t="n">
-        <v>438.8340312787832</v>
+        <v>468.5054034661018</v>
       </c>
       <c r="AD10" t="n">
-        <v>354567.280989762</v>
+        <v>378541.031906562</v>
       </c>
       <c r="AE10" t="n">
-        <v>485134.5962546451</v>
+        <v>517936.5399062563</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.050139782823126e-06</v>
+        <v>5.723258586598174e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.063541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>438834.0312787832</v>
+        <v>468505.4034661018</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.7336617322822</v>
+        <v>274.2143301305365</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.5918811028727</v>
+        <v>375.192143967049</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.372585783696</v>
+        <v>339.3843323323144</v>
       </c>
       <c r="AD2" t="n">
-        <v>246733.6617322822</v>
+        <v>274214.3301305365</v>
       </c>
       <c r="AE2" t="n">
-        <v>337591.8811028727</v>
+        <v>375192.143967049</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.831173445454071e-06</v>
+        <v>7.080549930653792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305372.585783696</v>
+        <v>339384.3323323145</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>541.1171292725242</v>
+        <v>584.2023249693036</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.3803286735822</v>
+        <v>799.3313942105992</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.7194692352924</v>
+        <v>723.0443278157967</v>
       </c>
       <c r="AD2" t="n">
-        <v>541117.1292725242</v>
+        <v>584202.3249693036</v>
       </c>
       <c r="AE2" t="n">
-        <v>740380.3286735822</v>
+        <v>799331.3942105992</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309711588481698e-06</v>
+        <v>4.756350867186504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>669719.4692352924</v>
+        <v>723044.3278157967</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.08606135606</v>
+        <v>356.5279022790888</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.4288468153106</v>
+        <v>487.8172047992088</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.1086200315519</v>
+        <v>441.2606154289185</v>
       </c>
       <c r="AD3" t="n">
-        <v>324086.06135606</v>
+        <v>356527.9022790889</v>
       </c>
       <c r="AE3" t="n">
-        <v>443428.8468153106</v>
+        <v>487817.2047992087</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.041131144817213e-06</v>
+        <v>6.262551060493089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>401108.6200315519</v>
+        <v>441260.6154289185</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.0624510693985</v>
+        <v>306.6904345266354</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.0350216209189</v>
+        <v>419.6273827463994</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.8106265750086</v>
+        <v>379.5787342878129</v>
       </c>
       <c r="AD4" t="n">
-        <v>285062.4510693985</v>
+        <v>306690.4345266354</v>
       </c>
       <c r="AE4" t="n">
-        <v>390035.0216209189</v>
+        <v>419627.3827463994</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.230722148368348e-06</v>
+        <v>6.652972677914153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>352810.6265750086</v>
+        <v>379578.734287813</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.7413587194393</v>
+        <v>308.3693421766762</v>
       </c>
       <c r="AB5" t="n">
-        <v>392.3321771358828</v>
+        <v>421.9245382613633</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.8885447917024</v>
+        <v>381.6566525045067</v>
       </c>
       <c r="AD5" t="n">
-        <v>286741.3587194394</v>
+        <v>308369.3421766763</v>
       </c>
       <c r="AE5" t="n">
-        <v>392332.1771358828</v>
+        <v>421924.5382613633</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.230885448113009e-06</v>
+        <v>6.653308958377048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.264583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>354888.5447917024</v>
+        <v>381656.6525045067</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>778.5482328334307</v>
+        <v>823.6788030030965</v>
       </c>
       <c r="AB2" t="n">
-        <v>1065.244039286635</v>
+        <v>1126.993676413008</v>
       </c>
       <c r="AC2" t="n">
-        <v>963.5786432565168</v>
+        <v>1019.434981681709</v>
       </c>
       <c r="AD2" t="n">
-        <v>778548.2328334306</v>
+        <v>823678.8030030965</v>
       </c>
       <c r="AE2" t="n">
-        <v>1065244.039286635</v>
+        <v>1126993.676413008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920003022888267e-06</v>
+        <v>3.803879483521234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.529166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>963578.6432565168</v>
+        <v>1019434.981681709</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.6255366300644</v>
+        <v>459.5000842360153</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.3089512049474</v>
+        <v>628.708286964728</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.1657811250603</v>
+        <v>568.7052504544363</v>
       </c>
       <c r="AD3" t="n">
-        <v>414625.5366300644</v>
+        <v>459500.0842360153</v>
       </c>
       <c r="AE3" t="n">
-        <v>567308.9512049474</v>
+        <v>628708.286964728</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.734888026788519e-06</v>
+        <v>5.418316706178503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.988541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>513165.7811250603</v>
+        <v>568705.2504544363</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.6232693843064</v>
+        <v>379.2365991700348</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.8970049941169</v>
+        <v>518.8882457224017</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.7643785525926</v>
+        <v>469.3662798148817</v>
       </c>
       <c r="AD4" t="n">
-        <v>345623.2693843063</v>
+        <v>379236.5991700348</v>
       </c>
       <c r="AE4" t="n">
-        <v>472897.0049941168</v>
+        <v>518888.2457224017</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.021976588841743e-06</v>
+        <v>5.987092003992928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.419791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>427764.3785525926</v>
+        <v>469366.2798148817</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.0498284216972</v>
+        <v>332.5725325877953</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.2238536796217</v>
+        <v>455.0404111512579</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.7365244863559</v>
+        <v>411.6119929642093</v>
       </c>
       <c r="AD5" t="n">
-        <v>310049.8284216971</v>
+        <v>332572.5325877953</v>
       </c>
       <c r="AE5" t="n">
-        <v>424223.8536796217</v>
+        <v>455040.4111512579</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.166778651082171e-06</v>
+        <v>6.273971549057051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>383736.5244863559</v>
+        <v>411611.9929642093</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.1797496527088</v>
+        <v>331.7024538188069</v>
       </c>
       <c r="AB6" t="n">
-        <v>423.0333735227256</v>
+        <v>453.8499309943619</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.6596620847846</v>
+        <v>410.535130562638</v>
       </c>
       <c r="AD6" t="n">
-        <v>309179.7496527088</v>
+        <v>331702.4538188069</v>
       </c>
       <c r="AE6" t="n">
-        <v>423033.3735227256</v>
+        <v>453849.9309943619</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.173696447758152e-06</v>
+        <v>6.287676977920049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.160416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>382659.6620847846</v>
+        <v>410535.130562638</v>
       </c>
     </row>
   </sheetData>
